--- a/biology/Biologie cellulaire et moléculaire/Dépolarisation_membranaire/Dépolarisation_membranaire.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Dépolarisation_membranaire/Dépolarisation_membranaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9polarisation_membranaire</t>
+          <t>Dépolarisation_membranaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une dépolarisation membranaire est une diminution de la différence de potentiel régnant entre l'extérieur d'une cellule et le milieu intracellulaire, de part et d'autre de la membrane plasmique, due le plus souvent à une entrée d'ions positifs (Na+, Ca2+, etc.) à l'intérieur de la cellule ou parfois due à la sortie d'ions chlorures, et intervenant dans les mécanismes de transmission de l'influx nerveux et de contraction musculaire.
 Un neurone suffisamment chargé positivement finira par créer un courant électrique stimulant en se dépolarisant.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9polarisation_membranaire</t>
+          <t>Dépolarisation_membranaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Pertinence pharmacologique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce phénomène étant un mécanisme de stimulation neuronale de première importance, de nombreux médicaments ont été conçus pour l'influencer; c'est le cas de nombreux sédatifs et tranquillisants[1]. De manière à limiter le potentiel de stimulation d'un neurone, les benzodiazépines et les barbitals vont ouvrir les canaux ioniques et augmenter l'entrée d'ions négatifs Cl- dans celui-ci. Il faudra donc un influx bien supérieur à la normale d'ions positifs pour charger le neurone, et ainsi créer un courant électrique stimulant. Certains autres produits tels que les gabapentoïdes vont plutôt réduire l'influx d'ions positifs pour arriver au même résultat[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce phénomène étant un mécanisme de stimulation neuronale de première importance, de nombreux médicaments ont été conçus pour l'influencer; c'est le cas de nombreux sédatifs et tranquillisants. De manière à limiter le potentiel de stimulation d'un neurone, les benzodiazépines et les barbitals vont ouvrir les canaux ioniques et augmenter l'entrée d'ions négatifs Cl- dans celui-ci. Il faudra donc un influx bien supérieur à la normale d'ions positifs pour charger le neurone, et ainsi créer un courant électrique stimulant. Certains autres produits tels que les gabapentoïdes vont plutôt réduire l'influx d'ions positifs pour arriver au même résultat.
 </t>
         </is>
       </c>
